--- a/static/templates/container_import_template.xlsx
+++ b/static/templates/container_import_template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="103">
   <si>
     <t>container_number</t>
   </si>
@@ -53,6 +53,9 @@
     <t>location</t>
   </si>
   <si>
+    <t>client</t>
+  </si>
+  <si>
     <t>notes</t>
   </si>
   <si>
@@ -98,13 +101,13 @@
     <t>MAERSK</t>
   </si>
   <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>2025-05-08</t>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>2025-05-31</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
   </si>
   <si>
     <t>BL-12345</t>
@@ -125,10 +128,10 @@
     <t>MAERSK Alberta</t>
   </si>
   <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
   </si>
   <si>
     <t>loaded</t>
@@ -140,13 +143,22 @@
     <t>full</t>
   </si>
   <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-05-11</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>ABC Shipping Ltd</t>
+  </si>
+  <si>
+    <t>XYZ Logistics</t>
+  </si>
+  <si>
+    <t>Global Imports Inc</t>
   </si>
   <si>
     <t>Refrigerated cargo</t>
@@ -210,6 +222,9 @@
   </si>
   <si>
     <t>Optional. Location where the container is currently located</t>
+  </si>
+  <si>
+    <t>Optional. Client name associated with this container. Must match an existing client in the system.</t>
   </si>
   <si>
     <t>Optional. Additional notes about the container</t>
@@ -690,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,11 +717,11 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,128 +761,140 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -889,38 +916,38 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -928,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -936,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -944,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -952,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -960,7 +987,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -968,7 +995,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -976,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -984,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -992,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1000,159 +1027,159 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
